--- a/similarities/split_global/harmonic_similarity_timestamps_99.xlsx
+++ b/similarities/split_global/harmonic_similarity_timestamps_99.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:J16"/>
+  <dimension ref="A1:L16"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -484,686 +484,730 @@
           <t>spotify_uri_track_2</t>
         </is>
       </c>
+      <c r="K1" s="1" t="inlineStr">
+        <is>
+          <t>Is the shared pattern good for the demo? (Yes/No)</t>
+        </is>
+      </c>
+      <c r="L1" s="1" t="inlineStr">
+        <is>
+          <t>Rate the goodness of the shared pattern (from 1 to 5)</t>
+        </is>
+      </c>
     </row>
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>schubert-winterreise_104</t>
+          <t>schubert-winterreise_132</t>
         </is>
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>schubert-winterreise_68</t>
+          <t>jaah_41</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>[['C:maj', 'G:7', 'C:maj', 'G:7', 'C:maj']]</t>
+          <t>['G:min7/A#', 'C:7', 'F:maj', 'C:7/A#', 'F:maj/A']</t>
         </is>
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>[['G:maj', 'D:7', 'G:maj', 'D:7', 'G:maj']]</t>
+          <t>['G:min7', 'C:7', 'F', 'C:7', 'F']</t>
         </is>
       </c>
       <c r="E2" t="inlineStr">
         <is>
-          <t>[('0:00:00.240000', '0:00:09.280000')]</t>
+          <t>('0:01:11.100000', '0:01:26.120000')</t>
         </is>
       </c>
       <c r="F2" t="inlineStr">
         <is>
-          <t>[('0:00:08.740000', '0:00:24.260000')]</t>
+          <t>('0:00:09.060000', '0:00:14.450000')</t>
         </is>
       </c>
       <c r="G2" t="inlineStr">
         <is>
-          <t>['https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-104#t=0.24']</t>
+          <t>https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-132#t=71.1</t>
         </is>
       </c>
       <c r="H2" t="inlineStr">
         <is>
-          <t>['https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-68#t=8.74']</t>
-        </is>
-      </c>
-      <c r="I2" t="inlineStr"/>
+          <t>https://soundcloud.com/jacopo-de-berardinis/jaah-41#t=9.06</t>
+        </is>
+      </c>
+      <c r="I2" t="inlineStr">
+        <is>
+          <t>spotify:track:68YORkKP9uvlOQFMZZZwH5</t>
+        </is>
+      </c>
       <c r="J2" t="inlineStr"/>
+      <c r="K2" t="inlineStr"/>
+      <c r="L2" t="inlineStr"/>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>schubert-winterreise_96</t>
+          <t>isophonics_159</t>
         </is>
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>schubert-winterreise_53</t>
+          <t>isophonics_224</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>[['F:maj/C', 'C:7', 'F:maj']]</t>
+          <t>['E:7', 'A', 'E/4']</t>
         </is>
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>[['E:maj', 'B:7', 'E:maj']]</t>
+          <t>['E:7', 'A', 'E']</t>
         </is>
       </c>
       <c r="E3" t="inlineStr">
         <is>
-          <t>[('0:01:08.040000', '0:01:19')]</t>
+          <t>('0:00:48.277000', '0:00:54.481000')</t>
         </is>
       </c>
       <c r="F3" t="inlineStr">
         <is>
-          <t>[('0:00:00.260000', '0:00:07.820000')]</t>
+          <t>('0:00:55.002834', '0:00:59.124376')</t>
         </is>
       </c>
       <c r="G3" t="inlineStr">
         <is>
-          <t>['https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-96#t=68.04']</t>
+          <t>https://soundcloud.com/jacopo-de-berardinis/isophonics-159#t=48.277</t>
         </is>
       </c>
       <c r="H3" t="inlineStr">
         <is>
-          <t>['https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-53#t=0.26']</t>
+          <t>https://soundcloud.com/jacopo-de-berardinis/isophonics-224#t=55.002834</t>
         </is>
       </c>
       <c r="I3" t="inlineStr"/>
-      <c r="J3" t="inlineStr"/>
+      <c r="J3" t="inlineStr">
+        <is>
+          <t>spotify:track:6dGnYIeXmHdcikdzNNDMm2</t>
+        </is>
+      </c>
+      <c r="K3" t="inlineStr"/>
+      <c r="L3" t="inlineStr"/>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>schubert-winterreise_151</t>
+          <t>isophonics_42</t>
         </is>
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>jaah_52</t>
+          <t>isophonics_205</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>[['C:maj/G', 'F:maj', 'C:maj/G']]</t>
+          <t>['Ab', 'C:min', 'Bb/3', 'Eb']</t>
         </is>
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>[['F', 'Bb', 'F']]</t>
+          <t>['F', 'A:min', 'G', 'C']</t>
         </is>
       </c>
       <c r="E4" t="inlineStr">
         <is>
-          <t>[('0:01:57.540000', '0:02:01.800000')]</t>
+          <t>('0:00:04.314000', '0:00:08.730000')</t>
         </is>
       </c>
       <c r="F4" t="inlineStr">
         <is>
-          <t>[('0:01:02.530000', '0:01:09.910000')]</t>
+          <t>('0:00:40.225034', '0:00:48.640189')</t>
         </is>
       </c>
       <c r="G4" t="inlineStr">
         <is>
-          <t>['https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-151#t=117.54']</t>
+          <t>https://soundcloud.com/jacopo-de-berardinis/isophonics-42#t=4.314</t>
         </is>
       </c>
       <c r="H4" t="inlineStr">
         <is>
-          <t>['https://soundcloud.com/jacopo-de-berardinis/jaah-52#t=62.53']</t>
+          <t>https://soundcloud.com/jacopo-de-berardinis/isophonics-205#t=40.225034</t>
         </is>
       </c>
       <c r="I4" t="inlineStr"/>
-      <c r="J4" t="inlineStr"/>
+      <c r="J4" t="inlineStr">
+        <is>
+          <t>spotify:track:389QX9Q1eUOEZ19vtzzI9O</t>
+        </is>
+      </c>
+      <c r="K4" t="inlineStr"/>
+      <c r="L4" t="inlineStr"/>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>schubert-winterreise_186</t>
+          <t>schubert-winterreise_199</t>
         </is>
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>schubert-winterreise_63</t>
+          <t>isophonics_2</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>[['F:min', 'C:maj', 'F:min'], ['F:maj', 'C:7', 'F:maj'], ['F:min', 'C:7', 'F:min']]</t>
+          <t>['G:maj/B', 'C:maj', 'G:maj/D']</t>
         </is>
       </c>
       <c r="D5" t="inlineStr">
         <is>
-          <t>[['C:min/G', 'G', 'C:min'], ['C/G', 'G:7', 'C'], ['C:min/G', 'G:7', 'C:min']]</t>
+          <t>['Bb/3', 'Eb:maj', 'Bb/3']</t>
         </is>
       </c>
       <c r="E5" t="inlineStr">
         <is>
-          <t>[('0:00:00.240000', '0:00:05.080000'), ('0:00:43.340000', '0:00:59.340000'), ('0:00:08.460000', '0:00:13.460000')]</t>
+          <t>('0:01:02.200000', '0:01:04.400000')</t>
         </is>
       </c>
       <c r="F5" t="inlineStr">
         <is>
-          <t>[('0:00:14.620000', '0:00:22.040000'), ('0:04:13.840000', '0:04:19.880000'), ('0:00:25.800000', '0:00:31.820000')]</t>
+          <t>('0:00:38.041000', '0:00:42.375000')</t>
         </is>
       </c>
       <c r="G5" t="inlineStr">
         <is>
-          <t>['https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-186#t=0.24', 'https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-186#t=43.34', 'https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-186#t=8.46']</t>
+          <t>https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-199#t=62.2</t>
         </is>
       </c>
       <c r="H5" t="inlineStr">
         <is>
-          <t>['https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-63#t=14.62', 'https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-63#t=253.84', 'https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-63#t=25.8']</t>
-        </is>
-      </c>
-      <c r="I5" t="inlineStr">
-        <is>
-          <t>spotify:track:1nvxQGWCnikMK7a4HYQvSx</t>
-        </is>
-      </c>
+          <t>https://soundcloud.com/jacopo-de-berardinis/isophonics-2#t=38.041</t>
+        </is>
+      </c>
+      <c r="I5" t="inlineStr"/>
       <c r="J5" t="inlineStr"/>
+      <c r="K5" t="inlineStr"/>
+      <c r="L5" t="inlineStr"/>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>isophonics_196</t>
+          <t>schubert-winterreise_37</t>
         </is>
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>schubert-winterreise_10</t>
+          <t>schubert-winterreise_74</t>
         </is>
       </c>
       <c r="C6" t="inlineStr">
         <is>
-          <t>[['A', 'D/5', 'A', 'D/5', 'A', 'D/5', 'A', 'D/5']]</t>
+          <t>['F:min/C', 'C', 'F:min/C']</t>
         </is>
       </c>
       <c r="D6" t="inlineStr">
         <is>
-          <t>[['G:maj', 'C:maj', 'G:maj', 'C:maj', 'G:maj', 'C:maj', 'G:maj', 'C:maj']]</t>
+          <t>['F:min', 'C:maj', 'F:min']</t>
         </is>
       </c>
       <c r="E6" t="inlineStr">
         <is>
-          <t>[('0:00:31.237210', '0:00:36.914489')]</t>
+          <t>('0:00:45.580000', '0:00:49.600000')</t>
         </is>
       </c>
       <c r="F6" t="inlineStr">
         <is>
-          <t>[('0:00:10.540000', '0:00:15.940000')]</t>
+          <t>('0:00:01.540000', '0:00:06.680000')</t>
         </is>
       </c>
       <c r="G6" t="inlineStr">
         <is>
-          <t>['https://soundcloud.com/jacopo-de-berardinis/isophonics-196#t=31.23721']</t>
+          <t>https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-37#t=45.58</t>
         </is>
       </c>
       <c r="H6" t="inlineStr">
         <is>
-          <t>['https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-10#t=10.54']</t>
+          <t>https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-74#t=1.54</t>
         </is>
       </c>
       <c r="I6" t="inlineStr"/>
-      <c r="J6" t="inlineStr"/>
+      <c r="J6" t="inlineStr">
+        <is>
+          <t>spotify:track:1nvxQGWCnikMK7a4HYQvSx</t>
+        </is>
+      </c>
+      <c r="K6" t="inlineStr"/>
+      <c r="L6" t="inlineStr"/>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>jaah_1</t>
+          <t>schubert-winterreise_133</t>
         </is>
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>schubert-winterreise_126</t>
+          <t>schubert-winterreise_155</t>
         </is>
       </c>
       <c r="C7" t="inlineStr">
         <is>
-          <t>[['Eb', 'Bb:7', 'Eb']]</t>
+          <t>['D:7', 'G:maj', 'G:min']</t>
         </is>
       </c>
       <c r="D7" t="inlineStr">
         <is>
-          <t>[['D:maj', 'A:7', 'D:maj']]</t>
+          <t>['G:7', 'C:maj', 'C:min']</t>
         </is>
       </c>
       <c r="E7" t="inlineStr">
         <is>
-          <t>[('0:00:00.720000', '0:00:17.050000')]</t>
+          <t>('0:01:03.840000', '0:01:06.800000')</t>
         </is>
       </c>
       <c r="F7" t="inlineStr">
         <is>
-          <t>[('0:00:00.580000', '0:00:09.400000')]</t>
+          <t>('0:00:29.340000', '0:00:39.820000')</t>
         </is>
       </c>
       <c r="G7" t="inlineStr">
         <is>
-          <t>['https://soundcloud.com/jacopo-de-berardinis/jaah-1#t=0.72']</t>
+          <t>https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-133#t=63.84</t>
         </is>
       </c>
       <c r="H7" t="inlineStr">
         <is>
-          <t>['https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-126#t=0.58']</t>
+          <t>https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-155#t=29.34</t>
         </is>
       </c>
       <c r="I7" t="inlineStr"/>
       <c r="J7" t="inlineStr"/>
+      <c r="K7" t="inlineStr"/>
+      <c r="L7" t="inlineStr"/>
     </row>
     <row r="8">
       <c r="A8" t="inlineStr">
         <is>
-          <t>isophonics_259</t>
+          <t>schubert-winterreise_198</t>
         </is>
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>isophonics_203</t>
+          <t>schubert-winterreise_4</t>
         </is>
       </c>
       <c r="C8" t="inlineStr">
         <is>
-          <t>[['D', 'E', 'G', 'A']]</t>
+          <t>['E:maj/G#', 'A:maj', 'E:maj']</t>
         </is>
       </c>
       <c r="D8" t="inlineStr">
         <is>
-          <t>[['G/5', 'A/4', 'C/9', 'D/5']]</t>
+          <t>['D:maj', 'G:maj', 'D:maj/F#']</t>
         </is>
       </c>
       <c r="E8" t="inlineStr">
         <is>
-          <t>[('0:00:48.101000', '0:01:09.653000')]</t>
+          <t>('0:00:55.180000', '0:01:02.060000')</t>
         </is>
       </c>
       <c r="F8" t="inlineStr">
         <is>
-          <t>[('0:00:05.021882', '0:00:13.148866')]</t>
+          <t>('0:01:06.520000', '0:01:10.140000')</t>
         </is>
       </c>
       <c r="G8" t="inlineStr">
         <is>
-          <t>['https://soundcloud.com/jacopo-de-berardinis/isophonics-259#t=48.101']</t>
+          <t>https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-198#t=55.18</t>
         </is>
       </c>
       <c r="H8" t="inlineStr">
         <is>
-          <t>['https://soundcloud.com/jacopo-de-berardinis/isophonics-203#t=5.021882']</t>
+          <t>https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-4#t=66.52</t>
         </is>
       </c>
       <c r="I8" t="inlineStr"/>
       <c r="J8" t="inlineStr"/>
+      <c r="K8" t="inlineStr"/>
+      <c r="L8" t="inlineStr"/>
     </row>
     <row r="9">
       <c r="A9" t="inlineStr">
         <is>
-          <t>isophonics_162</t>
+          <t>schubert-winterreise_131</t>
         </is>
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>schubert-winterreise_11</t>
+          <t>schubert-winterreise_214</t>
         </is>
       </c>
       <c r="C9" t="inlineStr">
         <is>
-          <t>[['A', 'D', 'A']]</t>
+          <t>['C:maj', 'G:maj/D', 'D:7', 'G:maj']</t>
         </is>
       </c>
       <c r="D9" t="inlineStr">
         <is>
-          <t>[['C:maj', 'F:maj', 'C:maj/E']]</t>
+          <t>['C:maj', 'G:maj', 'D:7', 'G:maj']</t>
         </is>
       </c>
       <c r="E9" t="inlineStr">
         <is>
-          <t>[('0:00:28.450816', '0:00:40.095623')]</t>
+          <t>('0:01:02.200000', '0:01:04.500000')</t>
         </is>
       </c>
       <c r="F9" t="inlineStr">
         <is>
-          <t>[('0:01:09.860000', '0:01:13.740000')]</t>
+          <t>('0:00:07.580000', '0:00:20.100000')</t>
         </is>
       </c>
       <c r="G9" t="inlineStr">
         <is>
-          <t>['https://soundcloud.com/jacopo-de-berardinis/isophonics-162#t=28.450816']</t>
+          <t>https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-131#t=62.2</t>
         </is>
       </c>
       <c r="H9" t="inlineStr">
         <is>
-          <t>['https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-11#t=69.86']</t>
-        </is>
-      </c>
-      <c r="I9" t="inlineStr">
-        <is>
-          <t>spotify:track:4MLBqAEzNN89o2M9h92Z26</t>
-        </is>
-      </c>
+          <t>https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-214#t=7.58</t>
+        </is>
+      </c>
+      <c r="I9" t="inlineStr"/>
       <c r="J9" t="inlineStr"/>
+      <c r="K9" t="inlineStr"/>
+      <c r="L9" t="inlineStr"/>
     </row>
     <row r="10">
       <c r="A10" t="inlineStr">
         <is>
-          <t>jaah_10</t>
+          <t>jaah_64</t>
         </is>
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>jaah_22</t>
+          <t>jaah_49</t>
         </is>
       </c>
       <c r="C10" t="inlineStr">
         <is>
-          <t>[['F:7', 'Bb:7', 'Eb:maj6']]</t>
+          <t>['A:7', 'D:7', 'G:7']</t>
         </is>
       </c>
       <c r="D10" t="inlineStr">
         <is>
-          <t>[['C:7', 'F:7', 'Bb:maj6']]</t>
+          <t>['G:7', 'C:7', 'F:7']</t>
         </is>
       </c>
       <c r="E10" t="inlineStr">
         <is>
-          <t>[('0:00:37.850000', '0:00:45.930000')]</t>
+          <t>('0:00:56.720000', '0:01:02.210000')</t>
         </is>
       </c>
       <c r="F10" t="inlineStr">
         <is>
-          <t>[('0:00:23.780000', '0:00:28.140000')]</t>
+          <t>('0:00:14.770000', '0:00:19.670000')</t>
         </is>
       </c>
       <c r="G10" t="inlineStr">
         <is>
-          <t>['https://soundcloud.com/jacopo-de-berardinis/jaah-10#t=37.85']</t>
+          <t>https://soundcloud.com/jacopo-de-berardinis/jaah-64#t=56.72</t>
         </is>
       </c>
       <c r="H10" t="inlineStr">
         <is>
-          <t>['https://soundcloud.com/jacopo-de-berardinis/jaah-22#t=23.78']</t>
+          <t>https://soundcloud.com/jacopo-de-berardinis/jaah-49#t=14.77</t>
         </is>
       </c>
       <c r="I10" t="inlineStr"/>
       <c r="J10" t="inlineStr"/>
+      <c r="K10" t="inlineStr"/>
+      <c r="L10" t="inlineStr"/>
     </row>
     <row r="11">
       <c r="A11" t="inlineStr">
         <is>
-          <t>jaah_6</t>
+          <t>schubert-winterreise_4</t>
         </is>
       </c>
       <c r="B11" t="inlineStr">
         <is>
-          <t>schubert-winterreise_86</t>
+          <t>isophonics_265</t>
         </is>
       </c>
       <c r="C11" t="inlineStr">
         <is>
-          <t>[['Eb', 'Bb:7', 'Eb']]</t>
+          <t>['D:maj', 'G:maj', 'D:maj/F#']</t>
         </is>
       </c>
       <c r="D11" t="inlineStr">
         <is>
-          <t>[['G:maj/D', 'D:7', 'G:maj']]</t>
+          <t>['A', 'D', 'A']</t>
         </is>
       </c>
       <c r="E11" t="inlineStr">
         <is>
-          <t>[('0:00:14.300000', '0:00:15.210000')]</t>
+          <t>('0:01:06.520000', '0:01:10.140000')</t>
         </is>
       </c>
       <c r="F11" t="inlineStr">
         <is>
-          <t>[('0:00:16.240000', '0:00:18.880000')]</t>
+          <t>('0:01:45.425056', '0:01:55.003287')</t>
         </is>
       </c>
       <c r="G11" t="inlineStr">
         <is>
-          <t>['https://soundcloud.com/jacopo-de-berardinis/jaah-6#t=14.3']</t>
+          <t>https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-4#t=66.52</t>
         </is>
       </c>
       <c r="H11" t="inlineStr">
         <is>
-          <t>['https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-86#t=16.24']</t>
+          <t>https://soundcloud.com/jacopo-de-berardinis/isophonics-265#t=105.425056</t>
         </is>
       </c>
       <c r="I11" t="inlineStr"/>
-      <c r="J11" t="inlineStr">
-        <is>
-          <t>spotify:track:0XfunCHFEeQnzm4NaY8rJr</t>
-        </is>
-      </c>
+      <c r="J11" t="inlineStr"/>
+      <c r="K11" t="inlineStr"/>
+      <c r="L11" t="inlineStr"/>
     </row>
     <row r="12">
       <c r="A12" t="inlineStr">
         <is>
-          <t>schubert-winterreise_40</t>
+          <t>schubert-winterreise_133</t>
         </is>
       </c>
       <c r="B12" t="inlineStr">
         <is>
-          <t>schubert-winterreise_70</t>
+          <t>isophonics_15</t>
         </is>
       </c>
       <c r="C12" t="inlineStr">
         <is>
-          <t>[['D:min', 'A:maj', 'D:min']]</t>
+          <t>['G:maj/B', 'C:maj', 'G:maj/D']</t>
         </is>
       </c>
       <c r="D12" t="inlineStr">
         <is>
-          <t>[['B:min', 'F#:maj/A#', 'B:min']]</t>
+          <t>['C', 'F', 'C']</t>
         </is>
       </c>
       <c r="E12" t="inlineStr">
         <is>
-          <t>[('0:01:28.760000', '0:01:38.300000')]</t>
+          <t>('0:01:01.600000', '0:01:03.840000')</t>
         </is>
       </c>
       <c r="F12" t="inlineStr">
         <is>
-          <t>[('0:00:12.120000', '0:00:17.320000')]</t>
+          <t>('0:01:04.514625', '0:01:27.246961')</t>
         </is>
       </c>
       <c r="G12" t="inlineStr">
         <is>
-          <t>['https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-40#t=88.76']</t>
+          <t>https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-133#t=61.6</t>
         </is>
       </c>
       <c r="H12" t="inlineStr">
         <is>
-          <t>['https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-70#t=12.12']</t>
+          <t>https://soundcloud.com/jacopo-de-berardinis/isophonics-15#t=64.514625</t>
         </is>
       </c>
       <c r="I12" t="inlineStr"/>
       <c r="J12" t="inlineStr"/>
+      <c r="K12" t="inlineStr"/>
+      <c r="L12" t="inlineStr"/>
     </row>
     <row r="13">
       <c r="A13" t="inlineStr">
         <is>
-          <t>isophonics_79</t>
+          <t>isophonics_32</t>
         </is>
       </c>
       <c r="B13" t="inlineStr">
         <is>
-          <t>schubert-winterreise_181</t>
+          <t>isophonics_296</t>
         </is>
       </c>
       <c r="C13" t="inlineStr">
         <is>
-          <t>[['E', 'B', 'E']]</t>
+          <t>['D', 'D/b7', 'G/3']</t>
         </is>
       </c>
       <c r="D13" t="inlineStr">
         <is>
-          <t>[['D#:maj', 'A#:maj', 'D#:maj']]</t>
+          <t>['G/3', 'G:maj', 'C:maj']</t>
         </is>
       </c>
       <c r="E13" t="inlineStr">
         <is>
-          <t>[('0:00:04.103323', '0:00:13.890534')]</t>
+          <t>('0:00:32.879478', '0:00:37.291269')</t>
         </is>
       </c>
       <c r="F13" t="inlineStr">
         <is>
-          <t>[('0:00:02.560000', '0:00:21.440000')]</t>
+          <t>('0:00:41.649000', '0:00:44.656000')</t>
         </is>
       </c>
       <c r="G13" t="inlineStr">
         <is>
-          <t>['https://soundcloud.com/jacopo-de-berardinis/isophonics-79#t=4.103323']</t>
+          <t>https://soundcloud.com/jacopo-de-berardinis/isophonics-32#t=32.879478</t>
         </is>
       </c>
       <c r="H13" t="inlineStr">
         <is>
-          <t>['https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-181#t=2.56']</t>
-        </is>
-      </c>
-      <c r="I13" t="inlineStr"/>
+          <t>https://soundcloud.com/jacopo-de-berardinis/isophonics-296#t=41.649</t>
+        </is>
+      </c>
+      <c r="I13" t="inlineStr">
+        <is>
+          <t>spotify:track:0qHMhBZqYb99yhX9BHcIkV</t>
+        </is>
+      </c>
       <c r="J13" t="inlineStr"/>
+      <c r="K13" t="inlineStr"/>
+      <c r="L13" t="inlineStr"/>
     </row>
     <row r="14">
       <c r="A14" t="inlineStr">
         <is>
-          <t>schubert-winterreise_199</t>
+          <t>jaah_69</t>
         </is>
       </c>
       <c r="B14" t="inlineStr">
         <is>
-          <t>isophonics_74</t>
+          <t>schubert-winterreise_82</t>
         </is>
       </c>
       <c r="C14" t="inlineStr">
         <is>
-          <t>[['G:maj/B', 'C:maj', 'G:maj/D']]</t>
+          <t>['Eb', 'Bb:7', 'Eb']</t>
         </is>
       </c>
       <c r="D14" t="inlineStr">
         <is>
-          <t>[['E', 'A', 'E']]</t>
+          <t>['G:maj/B', 'D:7', 'G:maj']</t>
         </is>
       </c>
       <c r="E14" t="inlineStr">
         <is>
-          <t>[('0:01:02.200000', '0:01:04.400000')]</t>
+          <t>('0:00:33.480000', '0:00:45.590000')</t>
         </is>
       </c>
       <c r="F14" t="inlineStr">
         <is>
-          <t>[('0:00:37.995918', '0:00:46.610521')]</t>
+          <t>('0:00:18.060000', '0:00:20.600000')</t>
         </is>
       </c>
       <c r="G14" t="inlineStr">
         <is>
-          <t>['https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-199#t=62.2']</t>
+          <t>https://soundcloud.com/jacopo-de-berardinis/jaah-69#t=33.48</t>
         </is>
       </c>
       <c r="H14" t="inlineStr">
         <is>
-          <t>['https://soundcloud.com/jacopo-de-berardinis/isophonics-74#t=37.995918']</t>
+          <t>https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-82#t=18.06</t>
         </is>
       </c>
       <c r="I14" t="inlineStr"/>
-      <c r="J14" t="inlineStr"/>
+      <c r="J14" t="inlineStr">
+        <is>
+          <t>spotify:track:4lrfYSnZmpXdCWuWqVo8L0</t>
+        </is>
+      </c>
+      <c r="K14" t="inlineStr"/>
+      <c r="L14" t="inlineStr"/>
     </row>
     <row r="15">
       <c r="A15" t="inlineStr">
         <is>
-          <t>isophonics_57</t>
+          <t>isophonics_193</t>
         </is>
       </c>
       <c r="B15" t="inlineStr">
         <is>
-          <t>isophonics_296</t>
+          <t>isophonics_15</t>
         </is>
       </c>
       <c r="C15" t="inlineStr">
         <is>
-          <t>[['C', 'D', 'G', 'C', 'G']]</t>
+          <t>['Ab', 'Eb', 'Bb/3']</t>
         </is>
       </c>
       <c r="D15" t="inlineStr">
         <is>
-          <t>[['C:maj', 'D:maj', 'G:maj', 'C:maj', 'G:maj']]</t>
+          <t>['F', 'C', 'G']</t>
         </is>
       </c>
       <c r="E15" t="inlineStr">
         <is>
-          <t>[('0:00:17.788231', '0:00:25.532085')]</t>
+          <t>('0:00:25.942000', '0:00:29.102000')</t>
         </is>
       </c>
       <c r="F15" t="inlineStr">
         <is>
-          <t>[('0:00:12.446000', '0:00:20.852000')]</t>
+          <t>('0:01:15.880793', '0:01:32.970680')</t>
         </is>
       </c>
       <c r="G15" t="inlineStr">
         <is>
-          <t>['https://soundcloud.com/jacopo-de-berardinis/isophonics-57#t=17.788231']</t>
+          <t>https://soundcloud.com/jacopo-de-berardinis/isophonics-193#t=25.942</t>
         </is>
       </c>
       <c r="H15" t="inlineStr">
         <is>
-          <t>['https://soundcloud.com/jacopo-de-berardinis/isophonics-296#t=12.446']</t>
+          <t>https://soundcloud.com/jacopo-de-berardinis/isophonics-15#t=75.880793</t>
         </is>
       </c>
       <c r="I15" t="inlineStr"/>
       <c r="J15" t="inlineStr"/>
+      <c r="K15" t="inlineStr"/>
+      <c r="L15" t="inlineStr"/>
     </row>
     <row r="16">
       <c r="A16" t="inlineStr">
         <is>
-          <t>schubert-winterreise_152</t>
+          <t>jaah_78</t>
         </is>
       </c>
       <c r="B16" t="inlineStr">
         <is>
-          <t>schubert-winterreise_52</t>
+          <t>jaah_27</t>
         </is>
       </c>
       <c r="C16" t="inlineStr">
         <is>
-          <t>[['C:maj/G', 'G:7', 'C:maj']]</t>
+          <t>['C:min7', 'F:7', 'Bb']</t>
         </is>
       </c>
       <c r="D16" t="inlineStr">
         <is>
-          <t>[['F:maj/C', 'C:7', 'F:maj']]</t>
+          <t>['E:min7', 'A:7', 'D']</t>
         </is>
       </c>
       <c r="E16" t="inlineStr">
         <is>
-          <t>[('0:00:31.600000', '0:00:33.800000')]</t>
+          <t>('0:00:40.640000', '0:00:48.100000')</t>
         </is>
       </c>
       <c r="F16" t="inlineStr">
         <is>
-          <t>[('0:01:05.260000', '0:01:11.040000')]</t>
+          <t>('0:00:08.780000', '0:00:16.050000')</t>
         </is>
       </c>
       <c r="G16" t="inlineStr">
         <is>
-          <t>['https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-152#t=31.6']</t>
+          <t>https://soundcloud.com/jacopo-de-berardinis/jaah-78#t=40.64</t>
         </is>
       </c>
       <c r="H16" t="inlineStr">
         <is>
-          <t>['https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-52#t=65.26']</t>
-        </is>
-      </c>
-      <c r="I16" t="inlineStr">
-        <is>
-          <t>spotify:track:2qCvEz2hEb92VFATqVvrht</t>
-        </is>
-      </c>
-      <c r="J16" t="inlineStr">
-        <is>
-          <t>spotify:track:5UYEp9kllA47IhttiiMuJ0</t>
-        </is>
-      </c>
+          <t>https://soundcloud.com/jacopo-de-berardinis/jaah-27#t=8.78</t>
+        </is>
+      </c>
+      <c r="I16" t="inlineStr"/>
+      <c r="J16" t="inlineStr"/>
+      <c r="K16" t="inlineStr"/>
+      <c r="L16" t="inlineStr"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
